--- a/3-Main Menu Core 主菜单核心.xlsx
+++ b/3-Main Menu Core 主菜单核心.xlsx
@@ -4,21 +4,35 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="视频翻译" sheetId="4" r:id="rId1"/>
     <sheet name="Note标签 &amp; 插件指令" sheetId="2" r:id="rId2"/>
     <sheet name="需要翻译的参数" sheetId="1" r:id="rId3"/>
     <sheet name="样式区别" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="自用备忘1" sheetId="5" r:id="rId5"/>
+    <sheet name="自用备忘2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="233">
   <si>
     <t xml:space="preserve">Main Menu Core 主菜单核心 #3 </t>
   </si>
@@ -886,11 +900,71 @@
   <si>
     <t>游戏结束</t>
   </si>
+  <si>
+    <t>VisuMZ_0_CoreEngine</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">插件参数:Parameter Settings  →  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Displayed Parameters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">插件参数:Parameter Settings  →  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Extended Parameters</t>
+    </r>
+  </si>
+  <si>
+    <t>VisuMZ_1_ElementStatusCore</t>
+  </si>
+  <si>
+    <t>插件参数:Status Menu Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  →  Displayed Parameters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  →  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Column 1:</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -899,6 +973,14 @@
   </numFmts>
   <fonts count="26">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1086,14 +1168,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -1101,6 +1175,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1129,12 +1209,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,183 +1519,189 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1630,10 +1710,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
@@ -1896,6 +1976,179 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4458970" y="635"/>
+          <a:ext cx="3073400" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>497205</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7679055" y="2305050"/>
+          <a:ext cx="3072765" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467225" y="2305050"/>
+          <a:ext cx="3073400" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476750" y="4524375"/>
+          <a:ext cx="3073400" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2203,10 +2456,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2524,7 +2777,7 @@
   <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2536,15 +2789,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C2" t="s">
@@ -2552,10 +2805,10 @@
       </c>
     </row>
     <row r="3" ht="108" spans="1:3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C3" t="s">
@@ -2563,26 +2816,26 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" s="15" customFormat="1" ht="3" customHeight="1"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="3" customHeight="1"/>
     <row r="6" ht="18.75" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" ht="40.5" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" s="15" customFormat="1" ht="3" customHeight="1"/>
+    <row r="8" s="1" customFormat="1" ht="3" customHeight="1"/>
     <row r="9" ht="18.75" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2646,33 +2899,33 @@
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="79.25" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6"/>
+    <col min="3" max="3" width="23.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:4">
+      <c r="A2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" ht="25.5" spans="1:3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2683,7 +2936,7 @@
       <c r="B4" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2694,37 +2947,37 @@
       <c r="B5" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:4">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="7" customFormat="1" spans="1:4">
+      <c r="A6" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" ht="25.5" spans="1:3">
       <c r="A7" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:4">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="7" customFormat="1" spans="1:4">
+      <c r="A8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
@@ -2733,19 +2986,19 @@
       <c r="B9" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:4">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:4">
+      <c r="A10" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
@@ -2754,7 +3007,7 @@
       <c r="B11" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2765,19 +3018,19 @@
       <c r="B12" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" spans="1:4">
-      <c r="A13" s="4" t="s">
+    <row r="13" s="7" customFormat="1" spans="1:4">
+      <c r="A13" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
@@ -2786,7 +3039,7 @@
       <c r="B14" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2794,32 +3047,32 @@
       <c r="A15" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" spans="1:4">
-      <c r="A20" s="4" t="s">
+    <row r="20" s="7" customFormat="1" spans="1:4">
+      <c r="A20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
@@ -2828,7 +3081,7 @@
       <c r="B21" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2839,7 +3092,7 @@
       <c r="B22" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2850,7 +3103,7 @@
       <c r="B23" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="9" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2861,7 +3114,7 @@
       <c r="B24" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="9" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2872,10 +3125,10 @@
       <c r="B25" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="14" t="s">
         <v>146</v>
       </c>
       <c r="E25" t="s">
@@ -2889,7 +3142,7 @@
       <c r="B26" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="14" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2897,12 +3150,12 @@
       <c r="A27" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2913,7 +3166,7 @@
       <c r="B30" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2924,7 +3177,7 @@
       <c r="B31" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2935,7 +3188,7 @@
       <c r="B32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="9" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2946,7 +3199,7 @@
       <c r="B33" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="9" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2957,10 +3210,10 @@
       <c r="B34" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="9" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2968,23 +3221,23 @@
       <c r="A35" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37" ht="18.75" spans="1:1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="11" t="s">
         <v>160</v>
       </c>
       <c r="B38" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="15" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2992,38 +3245,38 @@
       <c r="B39" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="12"/>
+      <c r="C39" s="15"/>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="12"/>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="12"/>
+      <c r="C41" s="15"/>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="12"/>
+      <c r="C42" s="15"/>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="12"/>
-    </row>
-    <row r="44" s="5" customFormat="1" spans="1:4">
-      <c r="A44" s="4" t="s">
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" s="8" customFormat="1" spans="1:4">
+      <c r="A44" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
@@ -3032,7 +3285,7 @@
       <c r="B45" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="9" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3043,7 +3296,7 @@
       <c r="B46" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="9" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3054,7 +3307,7 @@
       <c r="B47" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="9" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3065,7 +3318,7 @@
       <c r="B48" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="14" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3076,56 +3329,56 @@
       <c r="B49" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="52" ht="61.5" spans="1:3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="9" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="53" ht="85.5" spans="1:3">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="17" t="s">
         <v>190</v>
       </c>
       <c r="B54" t="s">
         <v>191</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="9" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="17" t="s">
         <v>193</v>
       </c>
       <c r="B55" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="12" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3151,33 +3404,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="6" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A1" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="57" ht="18.75" spans="1:1">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="85" ht="18.75" spans="1:1">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="113" ht="18.75" spans="1:1">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="140" ht="18.75" spans="1:1">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="6" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3369,7 +3622,7 @@
       <c r="J19" t="s">
         <v>214</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="5" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3379,7 +3632,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>210</v>
       </c>
       <c r="G26" t="s">
@@ -3424,7 +3677,7 @@
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3526,4 +3779,67 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:A32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="58.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1"/>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1"/>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/3-Main Menu Core 主菜单核心.xlsx
+++ b/3-Main Menu Core 主菜单核心.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="视频翻译" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="248">
   <si>
     <t xml:space="preserve">Main Menu Core 主菜单核心 #3 </t>
   </si>
@@ -346,10 +346,44 @@
   <si>
     <t>Actor: Change Menu Image (Group)
 Actor: Change Menu Image (Range)
-Actor: Change Menu Image (JS)</t>
-  </si>
-  <si>
-    <t>更改菜单图像</t>
+Actor: Change Menu Image (JS) (Legacy)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">更改角色的菜单图像
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actor ID:
+Filename:</t>
+    </r>
+  </si>
+  <si>
+    <t>Actor: Change Menu Image (JS) (v1.24)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">更改角色的菜单图像
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JS: Actor ID:
+JS: Filename:</t>
+    </r>
   </si>
   <si>
     <t>Menu Command Plugin Commands  菜单命令 插件指令</t>
@@ -808,6 +842,71 @@
     <t>用于确定如何绘制各个样式的 JavaScript 代码。</t>
   </si>
   <si>
+    <t>Custom Mouse Cursor</t>
+  </si>
+  <si>
+    <t>Enable?:</t>
+  </si>
+  <si>
+    <t>启用自定义光标？  需要一个自定义的'Idle'图形</t>
+  </si>
+  <si>
+    <t>Graphic Settings</t>
+  </si>
+  <si>
+    <t>Idle Filename:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">鼠标空闲时使用的图形。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位于游戏项目的/icon/文件夹中</t>
+    </r>
+  </si>
+  <si>
+    <t>Click Filename:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">单击或按住鼠标时，使用的图形。（如果不设置，则使用Idle的）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位于游戏项目的/icon/文件夹中</t>
+    </r>
+  </si>
+  <si>
+    <t>Anchor Settings</t>
+  </si>
+  <si>
+    <t>Anchor X:</t>
+  </si>
+  <si>
+    <t>锚点X。  0.0-左    0.5-中    1.0-右</t>
+  </si>
+  <si>
+    <t>Anchor Y:</t>
+  </si>
+  <si>
+    <t>锚点Y。  0.0-上    0.5-中    1.0-下</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
@@ -905,6 +1004,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">插件参数:Parameter Settings  →  </t>
     </r>
     <r>
@@ -921,6 +1027,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">插件参数:Parameter Settings  →  </t>
     </r>
     <r>
@@ -946,6 +1059,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">  →  </t>
     </r>
     <r>
@@ -1649,7 +1769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1703,6 +1823,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2456,10 +2579,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -2775,15 +2898,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="37.125" customWidth="1"/>
+    <col min="1" max="1" width="42.625" customWidth="1"/>
     <col min="2" max="2" width="73.125" customWidth="1"/>
     <col min="3" max="3" width="32.75" customWidth="1"/>
   </cols>
@@ -2794,7 +2917,7 @@
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2805,7 +2928,7 @@
       </c>
     </row>
     <row r="3" ht="108" spans="1:3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -2816,7 +2939,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="11"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="3" customHeight="1"/>
@@ -2825,25 +2948,25 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" ht="40.5" spans="1:2">
-      <c r="A7" s="20" t="s">
+    <row r="7" ht="54" spans="1:2">
+      <c r="A7" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="3" customHeight="1"/>
-    <row r="9" ht="18.75" spans="1:1">
-      <c r="A9" s="6" t="s">
+    <row r="8" customFormat="1" ht="37.5" spans="1:2">
+      <c r="A8" s="21" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B8" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="3" customHeight="1"/>
+    <row r="10" ht="18.75" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2877,6 +3000,14 @@
       </c>
       <c r="B14" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2889,10 +3020,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2905,481 +3036,549 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
     <row r="3" ht="25.5" spans="1:3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" s="7" customFormat="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
     <row r="7" ht="25.5" spans="1:3">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" s="7" customFormat="1" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" s="7" customFormat="1" spans="1:4">
       <c r="A13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:3">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:1">
       <c r="A17" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:1">
       <c r="A19" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="1" spans="1:4">
       <c r="A20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:1">
       <c r="A29" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" ht="18.75" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C39" s="15"/>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C40" s="15"/>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C41" s="15"/>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C42" s="15"/>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C43" s="15"/>
     </row>
     <row r="44" s="8" customFormat="1" spans="1:4">
       <c r="A44" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:1">
       <c r="A51" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" ht="61.5" spans="1:3">
       <c r="A52" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" ht="85.5" spans="1:3">
       <c r="A53" s="17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A57" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" s="8" customFormat="1" spans="1:4">
+      <c r="A58" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" s="8" customFormat="1" spans="1:4">
+      <c r="A60" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+    </row>
+    <row r="61" ht="25.5" spans="1:2">
+      <c r="A61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" spans="1:2">
+      <c r="A62" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" s="8" customFormat="1" spans="1:4">
+      <c r="A63" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3406,32 +3605,32 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="18.75" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:1">
       <c r="A29" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" ht="18.75" spans="1:1">
       <c r="A57" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" ht="18.75" spans="1:1">
       <c r="A85" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" ht="18.75" spans="1:1">
       <c r="A113" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" ht="18.75" spans="1:1">
       <c r="A140" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3458,321 +3657,321 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="7:11">
       <c r="G18" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="H18" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="I18" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="K18" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="7:11">
       <c r="G19" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="H19" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="I19" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J19" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="4" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G26" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H26" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="K26" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="7:11">
       <c r="G27" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="H27" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="I27" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="7:8">
       <c r="G28" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="H28" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="G30" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="H30" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="I30" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="J30" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="K30" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G31" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="H31" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="I31" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="J31" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="K31" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="7:12">
       <c r="G34" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="H34" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="I34" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="J34" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K34" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L34" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="7:12">
       <c r="G35" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="H35" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="I35" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="J35" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="K35" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="L35" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="7:8">
       <c r="G38" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="H38" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3786,7 +3985,7 @@
   <sheetPr/>
   <dimension ref="A2:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -3797,44 +3996,44 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1"/>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1"/>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
